--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B0534C-9F27-45B3-809A-B5B365C2EAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8CB7E-4F9B-4533-81A3-FD34044A8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="513">
   <si>
     <t>Solar PV</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>See EPS file elec/CCaMC for underlying calculations.</t>
   </si>
   <si>
@@ -1581,6 +1578,12 @@
   </si>
   <si>
     <t>Non-CCS Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1598,7 @@
     <numFmt numFmtId="167" formatCode="0.000000000000000000%"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,6 +1711,13 @@
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2131,7 +2141,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2379,6 +2389,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2868,7 +2881,7 @@
         <v>335</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,7 +2895,7 @@
         <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,7 +2923,7 @@
         <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2924,7 +2937,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2938,7 +2951,7 @@
         <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,7 +2965,7 @@
         <v>221</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,7 +2979,7 @@
         <v>215</v>
       </c>
       <c r="H11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10680,17 +10693,17 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -11167,7 +11180,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -11644,7 +11657,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -11802,7 +11815,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -11844,7 +11857,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -12002,7 +12015,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -12051,12 +12064,12 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C47">
         <v>91.94</v>
@@ -12064,7 +12077,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C48">
         <v>10.199999999999999</v>
@@ -12072,7 +12085,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C49">
         <v>48.75</v>
@@ -12080,51 +12093,51 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C51">
         <v>8.35</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C52">
         <v>1.62</v>
       </c>
       <c r="D52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C53">
         <v>2.5299999999999998</v>
       </c>
       <c r="D53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C54">
         <v>0.63</v>
       </c>
       <c r="D54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
@@ -12135,12 +12148,12 @@
         <v>18.100000000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
@@ -12969,12 +12982,12 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
@@ -13320,7 +13333,7 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
@@ -14190,12 +14203,12 @@
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
@@ -14529,7 +14542,7 @@
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
@@ -15358,12 +15371,12 @@
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
@@ -15705,10 +15718,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:AQ24"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19679,8 +19692,8 @@
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>477</v>
+      <c r="A24" s="138" t="s">
+        <v>511</v>
       </c>
       <c r="B24" s="77">
         <f>B13</f>
@@ -19848,6 +19861,179 @@
       </c>
       <c r="AQ24" s="77">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="138" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" s="77">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="77">
+        <f t="shared" ref="C25:AQ25" si="11">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="77">
+        <f t="shared" si="11"/>
+        <v>0.51764705882352946</v>
+      </c>
+      <c r="W25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="77">
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="AA25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="77">
+        <f t="shared" si="11"/>
+        <v>0.28235294117647058</v>
+      </c>
+      <c r="AD25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="77">
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="AK25" s="77">
+        <f t="shared" si="11"/>
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="AL25" s="77">
+        <f t="shared" si="11"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AM25" s="77">
+        <f t="shared" si="11"/>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="AN25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="77">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19862,10 +20048,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:AQ24"/>
+      <selection activeCell="B25" sqref="B25:AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23831,8 +24017,8 @@
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>477</v>
+      <c r="A24" s="138" t="s">
+        <v>511</v>
       </c>
       <c r="B24" s="77">
         <f>B13</f>
@@ -24000,6 +24186,179 @@
       </c>
       <c r="AQ24" s="77">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="138" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" s="77">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="77">
+        <f t="shared" ref="C25:AQ25" si="12">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="77">
+        <f t="shared" si="12"/>
+        <v>6.0604166666666646E-2</v>
+      </c>
+      <c r="W25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="77">
+        <f t="shared" si="12"/>
+        <v>0.41820000000000018</v>
+      </c>
+      <c r="AA25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="77">
+        <f t="shared" si="12"/>
+        <v>0.52119583333333308</v>
+      </c>
+      <c r="AM25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="77">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24013,10 +24372,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27814,8 +28173,8 @@
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>477</v>
+      <c r="A24" s="138" t="s">
+        <v>511</v>
       </c>
       <c r="B24" s="77">
         <f>B13</f>
@@ -27983,6 +28342,179 @@
       </c>
       <c r="AQ24" s="77">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="138" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" s="77">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="77">
+        <f t="shared" ref="C25:AQ25" si="11">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="77">
+        <f t="shared" si="11"/>
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="M25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="77">
+        <f t="shared" si="11"/>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="Z25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="77">
+        <f t="shared" si="11"/>
+        <v>5.1724137931034475E-2</v>
+      </c>
+      <c r="AC25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="77">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8CB7E-4F9B-4533-81A3-FD34044A8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9680A139-0A6F-4C1C-A62D-09CEA4056454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59445" yWindow="1200" windowWidth="24555" windowHeight="14835" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2366,6 +2366,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2389,9 +2392,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2848,26 +2848,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
-    <col min="8" max="8" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.81640625" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" customWidth="1"/>
+    <col min="4" max="4" width="65.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="63.453125" customWidth="1"/>
+    <col min="8" max="8" width="52.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="71" t="s">
         <v>214</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="79">
         <v>2022</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>449</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="65" t="s">
         <v>448</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>450</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="78" t="s">
         <v>327</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>215</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="79">
         <v>2019</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="H12" s="79"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>287</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="65" t="s">
         <v>286</v>
       </c>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>288</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="78" t="s">
         <v>223</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>215</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="79">
         <v>2016</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="107" t="s">
         <v>224</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="109" t="s">
         <v>114</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>330</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="78" t="s">
         <v>328</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>215</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="79">
         <v>2016</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>329</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="65" t="s">
         <v>255</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>288</v>
       </c>
@@ -3164,37 +3164,37 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="71" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>355</v>
       </c>
@@ -3225,19 +3225,19 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>194</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>428</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>440</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>441</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>442</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>443</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>444</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>445</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>446</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -3594,27 +3594,27 @@
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.54296875" customWidth="1"/>
+    <col min="6" max="6" width="60.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
         <v>161</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>257</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="87" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="87" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>258</v>
       </c>
@@ -3932,18 +3932,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130" t="s">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>1</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>237</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="E21" s="90"/>
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>259</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>260</v>
       </c>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>261</v>
       </c>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>262</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>263</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="E26" s="90"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="E27" s="90"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>228</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="E28" s="90"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>264</v>
       </c>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>265</v>
       </c>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>266</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>267</v>
       </c>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
         <v>268</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="E33" s="90"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
         <v>231</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="E34" s="90"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>269</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>270</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
         <v>236</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>271</v>
       </c>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>272</v>
       </c>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>273</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>274</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
         <v>275</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
         <v>276</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
         <v>277</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
         <v>278</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>279</v>
       </c>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>280</v>
       </c>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>281</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>282</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
         <v>283</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>284</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>285</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="E53" s="25"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>289</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
         <v>290</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>291</v>
       </c>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>292</v>
       </c>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
         <v>294</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
         <v>295</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
         <v>297</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
         <v>298</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>299</v>
       </c>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
         <v>300</v>
       </c>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
         <v>301</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>302</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>303</v>
       </c>
@@ -4835,7 +4835,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24" t="s">
         <v>304</v>
       </c>
@@ -4847,18 +4847,18 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="134" t="s">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="135"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="136"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="136"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="137"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>25</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="E97" s="73"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="31" t="s">
         <v>35</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="E98" s="34"/>
       <c r="F98" s="35"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="38" t="s">
         <v>20</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="38" t="s">
         <v>36</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="38" t="s">
         <v>37</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="40" t="s">
         <v>35</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="E103" s="43"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="38" t="s">
         <v>39</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="38" t="s">
         <v>40</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="38" t="s">
         <v>29</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="40" t="s">
         <v>35</v>
       </c>
@@ -5456,18 +5456,18 @@
       <c r="E108" s="43"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="134" t="s">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="110" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A110" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="135"/>
-      <c r="C110" s="135"/>
-      <c r="D110" s="137"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="136"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="136"/>
+      <c r="C110" s="136"/>
+      <c r="D110" s="138"/>
+      <c r="E110" s="138"/>
+      <c r="F110" s="137"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -5499,12 +5499,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>25</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>28</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="E131" s="73"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>49</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="47" t="s">
         <v>50</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="38" t="s">
         <v>20</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="38" t="s">
         <v>36</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="38" t="s">
         <v>37</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="40" t="s">
         <v>35</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="E139" s="37"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="38" t="s">
         <v>51</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="38" t="s">
         <v>40</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="38" t="s">
         <v>29</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="40" t="s">
         <v>35</v>
       </c>
@@ -6057,18 +6057,18 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="130" t="s">
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A145" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="131"/>
-      <c r="C145" s="131"/>
-      <c r="D145" s="132"/>
-      <c r="E145" s="132"/>
-      <c r="F145" s="133"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="132"/>
+      <c r="C145" s="132"/>
+      <c r="D145" s="133"/>
+      <c r="E145" s="133"/>
+      <c r="F145" s="134"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="57" t="s">
         <v>11</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="E159" s="60"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="57" t="s">
         <v>65</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="E161" s="60"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -6383,18 +6383,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="130" t="s">
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="164" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A164" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="131"/>
-      <c r="C164" s="131"/>
-      <c r="D164" s="132"/>
-      <c r="E164" s="132"/>
-      <c r="F164" s="133"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="132"/>
+      <c r="C164" s="132"/>
+      <c r="D164" s="133"/>
+      <c r="E164" s="133"/>
+      <c r="F164" s="134"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="62" t="s">
         <v>72</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="57" t="s">
         <v>11</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="57" t="s">
         <v>112</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="E216" s="60"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="17" t="s">
         <v>308</v>
       </c>
@@ -7369,18 +7369,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="130" t="s">
+    <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="219" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A219" s="131" t="s">
         <v>226</v>
       </c>
-      <c r="B219" s="131"/>
-      <c r="C219" s="131"/>
-      <c r="D219" s="132"/>
-      <c r="E219" s="132"/>
-      <c r="F219" s="133"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="132"/>
+      <c r="C219" s="132"/>
+      <c r="D219" s="133"/>
+      <c r="E219" s="133"/>
+      <c r="F219" s="134"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="67" t="s">
         <v>119</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="E228" s="60"/>
       <c r="F228" s="52"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="E230" s="60"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7652,18 +7652,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A235" s="130" t="s">
+    <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="235" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A235" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="B235" s="131"/>
-      <c r="C235" s="131"/>
-      <c r="D235" s="132"/>
-      <c r="E235" s="132"/>
-      <c r="F235" s="133"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="132"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="133"/>
+      <c r="E235" s="133"/>
+      <c r="F235" s="134"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="83" t="s">
         <v>228</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="E238" s="21"/>
       <c r="F238" s="56"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="83" t="s">
         <v>229</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="83" t="s">
         <v>230</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="83" t="s">
         <v>231</v>
       </c>
@@ -7749,7 +7749,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="83" t="s">
         <v>232</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="83" t="s">
         <v>233</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="38" t="s">
         <v>234</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="83" t="s">
         <v>235</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="38" t="s">
         <v>236</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
         <v>230</v>
       </c>
@@ -7871,7 +7871,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7883,7 +7883,7 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>237</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="83" t="s">
         <v>238</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="83" t="s">
         <v>239</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="83" t="s">
         <v>240</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="83" t="s">
         <v>241</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="83" t="s">
         <v>242</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="83" t="s">
         <v>243</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="83" t="s">
         <v>244</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="83" t="s">
         <v>245</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="83" t="s">
         <v>246</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="83" t="s">
         <v>247</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="83" t="s">
         <v>248</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="83" t="s">
         <v>249</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="83" t="s">
         <v>250</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="83" t="s">
         <v>76</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="83" t="s">
         <v>25</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="83" t="s">
         <v>251</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="83" t="s">
         <v>252</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="83" t="s">
         <v>253</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="83" t="s">
         <v>76</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="83" t="s">
         <v>103</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="83" t="s">
         <v>254</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="85" t="s">
         <v>11</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="96" t="s">
         <v>8</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="E272" s="97"/>
       <c r="F272" s="98"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="99" t="s">
         <v>289</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="E273" s="60"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="83" t="s">
         <v>315</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="83" t="s">
         <v>291</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="83" t="s">
         <v>316</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="83" t="s">
         <v>317</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="83" t="s">
         <v>314</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="83" t="s">
         <v>105</v>
       </c>
@@ -8441,7 +8441,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="83" t="s">
         <v>318</v>
       </c>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="83" t="s">
         <v>319</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="83" t="s">
         <v>320</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="83" t="s">
         <v>297</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="83" t="s">
         <v>299</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="83" t="s">
         <v>321</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="83" t="s">
         <v>322</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="83" t="s">
         <v>302</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="85" t="s">
         <v>11</v>
       </c>
@@ -8617,17 +8617,17 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="130" t="s">
+    <row r="289" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A289" s="131" t="s">
         <v>337</v>
       </c>
-      <c r="B289" s="131"/>
-      <c r="C289" s="131"/>
-      <c r="D289" s="132"/>
-      <c r="E289" s="132"/>
-      <c r="F289" s="133"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B289" s="132"/>
+      <c r="C289" s="132"/>
+      <c r="D289" s="133"/>
+      <c r="E289" s="133"/>
+      <c r="F289" s="134"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="92" t="s">
         <v>1</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="86" t="s">
         <v>338</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="83" t="s">
         <v>339</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="83" t="s">
         <v>340</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="83" t="s">
         <v>341</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="83" t="s">
         <v>342</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="83" t="s">
         <v>343</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="83" t="s">
         <v>344</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="83" t="s">
         <v>345</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="83" t="s">
         <v>346</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="83" t="s">
         <v>347</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="86" t="s">
         <v>348</v>
       </c>
@@ -8877,7 +8877,7 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="83" t="s">
         <v>349</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="83" t="s">
         <v>350</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="83" t="s">
         <v>351</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="84" t="s">
         <v>352</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="E307" s="60"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="83" t="s">
         <v>65</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="83" t="s">
         <v>358</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="83" t="s">
         <v>359</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="84" t="s">
         <v>360</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -9073,7 +9073,7 @@
       <c r="E312" s="60"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="106" t="s">
         <v>356</v>
       </c>
@@ -9095,22 +9095,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B314" s="81"/>
       <c r="C314" s="80"/>
       <c r="D314" s="101"/>
     </row>
-    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="130" t="s">
+    <row r="315" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A315" s="131" t="s">
         <v>365</v>
       </c>
-      <c r="B315" s="131"/>
-      <c r="C315" s="131"/>
-      <c r="D315" s="132"/>
-      <c r="E315" s="132"/>
-      <c r="F315" s="133"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B315" s="132"/>
+      <c r="C315" s="132"/>
+      <c r="D315" s="133"/>
+      <c r="E315" s="133"/>
+      <c r="F315" s="134"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="92" t="s">
         <v>1</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="20" t="s">
         <v>366</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="E318" s="90"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="20" t="s">
         <v>367</v>
       </c>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="20" t="s">
         <v>368</v>
       </c>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="20" t="s">
         <v>369</v>
       </c>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="20" t="s">
         <v>370</v>
       </c>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="20" t="s">
         <v>371</v>
       </c>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="20" t="s">
         <v>372</v>
       </c>
@@ -9264,7 +9264,7 @@
       <c r="E324" s="90"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="20" t="s">
         <v>373</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="E325" s="90"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="20" t="s">
         <v>374</v>
       </c>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="20" t="s">
         <v>375</v>
       </c>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="20" t="s">
         <v>376</v>
       </c>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="20" t="s">
         <v>377</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="20" t="s">
         <v>378</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="20" t="s">
         <v>379</v>
       </c>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="20" t="s">
         <v>380</v>
       </c>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="20" t="s">
         <v>381</v>
       </c>
@@ -9426,7 +9426,7 @@
       <c r="E333" s="90"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="20" t="s">
         <v>382</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="E334" s="90"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="20" t="s">
         <v>269</v>
       </c>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="20" t="s">
         <v>383</v>
       </c>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="20" t="s">
         <v>384</v>
       </c>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="20" t="s">
         <v>385</v>
       </c>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="20" t="s">
         <v>386</v>
       </c>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="20" t="s">
         <v>271</v>
       </c>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="20" t="s">
         <v>387</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="E341" s="90"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="20" t="s">
         <v>388</v>
       </c>
@@ -9578,7 +9578,7 @@
       <c r="E342" s="90"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="20" t="s">
         <v>389</v>
       </c>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="20" t="s">
         <v>390</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="E344" s="90"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="20" t="s">
         <v>278</v>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="20" t="s">
         <v>279</v>
       </c>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="20" t="s">
         <v>391</v>
       </c>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="20" t="s">
         <v>392</v>
       </c>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="20" t="s">
         <v>281</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="20" t="s">
         <v>393</v>
       </c>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="20" t="s">
         <v>394</v>
       </c>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="20" t="s">
         <v>395</v>
       </c>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="20" t="s">
         <v>396</v>
       </c>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="20" t="s">
         <v>397</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="E354" s="90"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="20" t="s">
         <v>398</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="E355" s="90"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="20" t="s">
         <v>399</v>
       </c>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="20" t="s">
         <v>400</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="20" t="s">
         <v>401</v>
       </c>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="20" t="s">
         <v>402</v>
       </c>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="20" t="s">
         <v>403</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="E360" s="90"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="20" t="s">
         <v>404</v>
       </c>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="20" t="s">
         <v>405</v>
       </c>
@@ -9934,7 +9934,7 @@
       <c r="E362" s="90"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="20" t="s">
         <v>285</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="67" t="s">
         <v>406</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="E364" s="95"/>
       <c r="F364" s="72"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9976,7 +9976,7 @@
       <c r="E365" s="60"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9986,7 +9986,7 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="20" t="s">
         <v>408</v>
       </c>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="20" t="s">
         <v>409</v>
       </c>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="20" t="s">
         <v>410</v>
       </c>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="20" t="s">
         <v>271</v>
       </c>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="20" t="s">
         <v>411</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -10088,7 +10088,7 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="20" t="s">
         <v>412</v>
       </c>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="20" t="s">
         <v>413</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="20" t="s">
         <v>414</v>
       </c>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="20" t="s">
         <v>415</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="20" t="s">
         <v>416</v>
       </c>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="20" t="s">
         <v>417</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="20" t="s">
         <v>405</v>
       </c>
@@ -10212,7 +10212,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="20" t="s">
         <v>285</v>
       </c>
@@ -10232,7 +10232,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="24" t="s">
         <v>418</v>
       </c>
@@ -10343,13 +10343,13 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="V1" s="116"/>
       <c r="W1" s="116"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="T3" s="120" t="s">
         <v>468</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>466</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P5" s="71" t="s">
         <v>451</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>0.39285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P6" s="71" t="s">
         <v>452</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P7" s="71" t="s">
         <v>453</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P8" t="s">
         <v>454</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P9" t="s">
         <v>455</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>0.13095238095238096</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P10" t="s">
         <v>456</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>5.9523809523809521E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P11" s="71" t="s">
         <v>457</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P12" s="71" t="s">
         <v>458</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P13" s="71" t="s">
         <v>459</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P14" s="71" t="s">
         <v>460</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P15" s="71" t="s">
         <v>461</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="T15" s="123"/>
       <c r="U15" s="124"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="P16" t="s">
         <v>462</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="T16" s="122"/>
       <c r="U16" s="125"/>
     </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:21" x14ac:dyDescent="0.35">
       <c r="P17" s="71" t="s">
         <v>463</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="T17" s="122"/>
       <c r="U17" s="125"/>
     </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="16:21" x14ac:dyDescent="0.35">
       <c r="P18" t="s">
         <v>464</v>
       </c>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="R18" s="112"/>
     </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:21" x14ac:dyDescent="0.35">
       <c r="P19" s="71" t="s">
         <v>465</v>
       </c>
@@ -10635,18 +10635,18 @@
         <v>0.39285714285714285</v>
       </c>
     </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="16:21" x14ac:dyDescent="0.35">
       <c r="Q20" s="71">
         <f>SUM(Q5:Q7,Q11:Q15,Q17,Q19)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="16:21" x14ac:dyDescent="0.35">
       <c r="P22" s="71" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="16:21" x14ac:dyDescent="0.35">
       <c r="P23" t="s">
         <v>257</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>0.53533333333333433</v>
       </c>
     </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="16:21" x14ac:dyDescent="0.35">
       <c r="P24" t="s">
         <v>258</v>
       </c>
@@ -10685,28 +10685,28 @@
       <selection activeCell="A4" sqref="A4:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2021</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>1213309.5172925084</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>470</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>546510.48924034019</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>2090069.7248419826</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -11178,12 +11178,12 @@
         <v>1406155.6987444595</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2021</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>2392614.7852066685</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>470</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>834725.65369765111</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>7911207.6996868448</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -11655,17 +11655,17 @@
         <v>2772902.4351726989</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="AD20" s="124"/>
       <c r="AE20" s="124"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>470</v>
       </c>
@@ -11739,7 +11739,7 @@
       <c r="AD21" s="124"/>
       <c r="AE21" s="124"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="AD22" s="124"/>
       <c r="AE22" s="124"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -11813,17 +11813,17 @@
       <c r="AD23" s="124"/>
       <c r="AE23" s="124"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>65750.800457615216</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>26096.967191940064</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>133213.1552570395</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -11855,17 +11855,17 @@
         <v>65750.800457615216</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -11902,7 +11902,7 @@
       <c r="AD34" s="124"/>
       <c r="AE34" s="124"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>470</v>
       </c>
@@ -11939,7 +11939,7 @@
       <c r="AD35" s="124"/>
       <c r="AE35" s="124"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -11976,7 +11976,7 @@
       <c r="AD36" s="124"/>
       <c r="AE36" s="124"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -12013,17 +12013,17 @@
       <c r="AD37" s="124"/>
       <c r="AE37" s="124"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>7.1681929364874337</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>470</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>1.6607160940325494</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>205</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>4.2704128132265557</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -12059,15 +12059,15 @@
         <v>12.14376215122577</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B45" s="124"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>487</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>91.94</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>488</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>489</v>
       </c>
@@ -12091,12 +12091,12 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>491</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>492</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>493</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>494</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>65</v>
       </c>
@@ -12151,12 +12151,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A59" s="126"/>
       <c r="B59" s="110" t="s">
         <v>163</v>
@@ -12285,7 +12285,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>199</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>470</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>209</v>
       </c>
@@ -12977,20 +12977,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B64" s="128"/>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A67" s="126"/>
       <c r="B67" s="110" t="s">
         <v>163</v>
@@ -13119,7 +13119,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -13172,7 +13172,7 @@
       <c r="AP68" s="129"/>
       <c r="AQ68" s="129"/>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>470</v>
       </c>
@@ -13225,7 +13225,7 @@
       <c r="AP69" s="129"/>
       <c r="AQ69" s="129"/>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -13278,7 +13278,7 @@
       <c r="AP70" s="129"/>
       <c r="AQ70" s="129"/>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -13331,12 +13331,12 @@
       <c r="AP71" s="129"/>
       <c r="AQ71" s="129"/>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A74" s="126"/>
       <c r="B74" s="110" t="s">
         <v>163</v>
@@ -13465,7 +13465,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>470</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B79" s="128"/>
       <c r="C79" s="128"/>
       <c r="D79" s="128"/>
@@ -14201,17 +14201,17 @@
       <c r="AP79" s="128"/>
       <c r="AQ79" s="128"/>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A82" s="126"/>
       <c r="B82" s="110" t="s">
         <v>163</v>
@@ -14340,7 +14340,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>199</v>
       </c>
@@ -14390,7 +14390,7 @@
       <c r="AP83" s="129"/>
       <c r="AQ83" s="129"/>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>470</v>
       </c>
@@ -14440,7 +14440,7 @@
       <c r="AP84" s="129"/>
       <c r="AQ84" s="129"/>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -14490,7 +14490,7 @@
       <c r="AP85" s="129"/>
       <c r="AQ85" s="129"/>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -14540,12 +14540,12 @@
       <c r="AP86" s="129"/>
       <c r="AQ86" s="129"/>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A89" s="126"/>
       <c r="B89" s="110" t="s">
         <v>163</v>
@@ -14674,7 +14674,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>199</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>470</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -15366,20 +15366,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B94" s="128"/>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A97" s="126"/>
       <c r="B97" s="110" t="s">
         <v>163</v>
@@ -15508,7 +15508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -15558,7 +15558,7 @@
       <c r="AP98" s="129"/>
       <c r="AQ98" s="129"/>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>470</v>
       </c>
@@ -15608,7 +15608,7 @@
       <c r="AP99" s="129"/>
       <c r="AQ99" s="129"/>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="AP100" s="129"/>
       <c r="AQ100" s="129"/>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -15724,33 +15724,33 @@
       <selection activeCell="B25" sqref="B25:AQ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="24" width="7.7265625" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="33" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="126" t="s">
         <v>471</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>469</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>470</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>472</v>
       </c>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="AS19" s="77"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>473</v>
       </c>
@@ -19170,7 +19170,7 @@
       </c>
       <c r="AS20" s="77"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>474</v>
       </c>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="AS21" s="77"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>475</v>
       </c>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="AS22" s="77"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -19691,8 +19691,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A24" s="130" t="s">
         <v>511</v>
       </c>
       <c r="B24" s="77">
@@ -19864,8 +19864,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A25" s="130" t="s">
         <v>512</v>
       </c>
       <c r="B25" s="77">
@@ -20054,32 +20054,32 @@
       <selection activeCell="B25" sqref="B25:AQ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="24" width="8" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.140625" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="33" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.1796875" customWidth="1"/>
+    <col min="41" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="127" t="s">
         <v>471</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>469</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>470</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>472</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>473</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>474</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>475</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -24016,8 +24016,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A24" s="130" t="s">
         <v>511</v>
       </c>
       <c r="B24" s="77">
@@ -24189,8 +24189,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A25" s="130" t="s">
         <v>512</v>
       </c>
       <c r="B25" s="77">
@@ -24374,36 +24374,36 @@
   </sheetPr>
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:AQ25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="8.28515625" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="8.26953125" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="33" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="127" t="s">
         <v>471</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>469</v>
       </c>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>470</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -26668,7 +26668,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="89">
         <v>0</v>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="89">
         <v>0</v>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -27307,7 +27307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>472</v>
       </c>
@@ -27480,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>473</v>
       </c>
@@ -27653,7 +27653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>474</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>475</v>
       </c>
@@ -27999,7 +27999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -28172,8 +28172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A24" s="130" t="s">
         <v>511</v>
       </c>
       <c r="B24" s="77">
@@ -28345,8 +28345,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A25" s="130" t="s">
         <v>512</v>
       </c>
       <c r="B25" s="77">
